--- a/Data/E170.xlsx
+++ b/Data/E170.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="253">
   <si>
     <t>Wing</t>
   </si>
@@ -572,9 +572,6 @@
     <t xml:space="preserve">    kg       </t>
   </si>
   <si>
-    <t>Sunday, 08. July 2018 09:56:28 AM</t>
-  </si>
-  <si>
     <t>PayloadRangeDiagram.dat</t>
   </si>
   <si>
@@ -779,7 +776,19 @@
     <t xml:space="preserve"> Monday, 09. July 2018 07:05:06 PM</t>
   </si>
   <si>
-    <t>Monday, 09. July 2018 07:05:06 PM</t>
+    <t xml:space="preserve"> Tuesday, 10. July 2018 09:45:00 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, 11. July 2018 08:29:54</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>ANGE</t>
+  </si>
+  <si>
+    <t>WERED</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1069,6 +1078,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,16 +1100,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,7 +1340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1551,13 +1559,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1672</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2173</c:v>
+                  <c:v>2202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2509</c:v>
+                  <c:v>2548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,13 +1577,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8434</c:v>
+                  <c:v>9404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8434</c:v>
+                  <c:v>9404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6799</c:v>
+                  <c:v>7036</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1594,11 +1602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90634944"/>
-        <c:axId val="90633312"/>
+        <c:axId val="-104697760"/>
+        <c:axId val="-104703744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90634944"/>
+        <c:axId val="-104697760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,12 +1696,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90633312"/>
+        <c:crossAx val="-104703744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90633312"/>
+        <c:axId val="-104703744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90634944"/>
+        <c:crossAx val="-104697760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2204,11 +2212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133294544"/>
-        <c:axId val="2133293456"/>
+        <c:axId val="-104699392"/>
+        <c:axId val="-104700480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133294544"/>
+        <c:axId val="-104699392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2314,12 +2322,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133293456"/>
+        <c:crossAx val="-104700480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133293456"/>
+        <c:axId val="-104700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2431,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133294544"/>
+        <c:crossAx val="-104699392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2830,11 +2838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182347568"/>
-        <c:axId val="182347024"/>
+        <c:axId val="-104708640"/>
+        <c:axId val="-104701024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182347568"/>
+        <c:axId val="-104708640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2940,12 +2948,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182347024"/>
+        <c:crossAx val="-104701024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182347024"/>
+        <c:axId val="-104701024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3057,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182347568"/>
+        <c:crossAx val="-104708640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3167,7 +3175,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3456,11 +3463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182335600"/>
-        <c:axId val="182342672"/>
+        <c:axId val="-104705920"/>
+        <c:axId val="-104707552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182335600"/>
+        <c:axId val="-104705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -3505,7 +3512,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3566,12 +3572,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182342672"/>
+        <c:crossAx val="-104707552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182342672"/>
+        <c:axId val="-104707552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +3620,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3675,7 +3680,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182335600"/>
+        <c:crossAx val="-104705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3689,7 +3694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3793,7 +3797,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4082,11 +4085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182344848"/>
-        <c:axId val="182336144"/>
+        <c:axId val="-104697216"/>
+        <c:axId val="-104711360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182344848"/>
+        <c:axId val="-104697216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -4131,7 +4134,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4192,12 +4194,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182336144"/>
+        <c:crossAx val="-104711360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182336144"/>
+        <c:axId val="-104711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4242,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4301,7 +4302,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182344848"/>
+        <c:crossAx val="-104697216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4315,7 +4316,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8646,10 +8646,10 @@
       <c r="A109" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="48"/>
+      <c r="C109" s="53"/>
     </row>
     <row r="110" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
@@ -8673,10 +8673,10 @@
       <c r="A112" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="48"/>
+      <c r="C112" s="53"/>
     </row>
     <row r="113" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -8700,10 +8700,10 @@
       <c r="A115" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="47" t="s">
+      <c r="B115" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="53"/>
     </row>
     <row r="116" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
@@ -8727,10 +8727,10 @@
       <c r="A118" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="47" t="s">
+      <c r="B118" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="48"/>
+      <c r="C118" s="53"/>
     </row>
     <row r="119" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
@@ -8754,10 +8754,10 @@
       <c r="A121" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="48"/>
+      <c r="C121" s="53"/>
     </row>
     <row r="122" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
@@ -8781,10 +8781,10 @@
       <c r="A124" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C124" s="48"/>
+      <c r="C124" s="53"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
@@ -8837,10 +8837,10 @@
       <c r="A130" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="53"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
@@ -8864,10 +8864,10 @@
       <c r="A133" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="47" t="s">
+      <c r="B133" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="48"/>
+      <c r="C133" s="53"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
@@ -8891,10 +8891,10 @@
       <c r="A136" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="48"/>
+      <c r="C136" s="53"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
@@ -9770,8 +9770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9829,16 +9829,16 @@
       </c>
       <c r="H2" s="4">
         <f>B13</f>
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="I2" s="37">
         <f>IFERROR((H2-G2)/G2,0)</f>
-        <v>0</v>
+        <v>-3.6269430051813469E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="27">
         <v>21157</v>
@@ -9856,15 +9856,15 @@
       </c>
       <c r="H3" s="4">
         <f>B31</f>
-        <v>22466</v>
+        <v>20587</v>
       </c>
       <c r="I3" s="37">
         <f t="shared" ref="I3:I8" si="2">IFERROR((H3-G3)/G3,0)</f>
-        <v>6.1870775629815189E-2</v>
-      </c>
-      <c r="J3" s="52">
+        <v>-2.6941437821997448E-2</v>
+      </c>
+      <c r="J3" s="47">
         <f>H3-G3</f>
-        <v>1309</v>
+        <v>-570</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9887,11 +9887,11 @@
       </c>
       <c r="H4" s="4">
         <f>B13</f>
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="I4" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.6269430051813469E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9914,15 +9914,15 @@
       </c>
       <c r="H5" s="4">
         <f>B14</f>
-        <v>30900</v>
+        <v>30140</v>
       </c>
       <c r="I5" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
+        <v>-2.459546925566343E-2</v>
+      </c>
+      <c r="J5" s="47">
         <f>H5-G5</f>
-        <v>0</v>
+        <v>-760</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9971,11 +9971,11 @@
       </c>
       <c r="H7" s="4">
         <f>B16</f>
-        <v>8434</v>
+        <v>9404</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="2"/>
-        <v>-0.13435286872626501</v>
+        <v>-3.4794211228574359E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9998,11 +9998,11 @@
       </c>
       <c r="H8" s="4">
         <f>B15</f>
-        <v>9335</v>
+        <v>9428</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9625066952329939E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10042,11 +10042,11 @@
       </c>
       <c r="H12" s="4">
         <f>B23</f>
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I12" s="37">
         <f>IFERROR((H12-G12)/G12,0)</f>
-        <v>0</v>
+        <v>-1.5552099533437014E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
         <v>132</v>
       </c>
       <c r="B13" s="32">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>124</v>
@@ -10067,11 +10067,11 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ref="H13:H19" si="3">B24</f>
-        <v>4065</v>
+        <v>4030</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" ref="I13:I20" si="4">IFERROR((H13-G13)/G13,0)</f>
-        <v>-0.23431908080617819</v>
+        <v>-0.24091165944622339</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10079,7 +10079,7 @@
         <v>133</v>
       </c>
       <c r="B14" s="32">
-        <v>30900</v>
+        <v>30140</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>124</v>
@@ -10092,11 +10092,11 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="4"/>
-        <v>-4.0983606557377046E-2</v>
+        <v>-4.9180327868852458E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <v>134</v>
       </c>
       <c r="B15" s="32">
-        <v>9335</v>
+        <v>9428</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>124</v>
@@ -10129,7 +10129,7 @@
         <v>135</v>
       </c>
       <c r="B16" s="32">
-        <v>8434</v>
+        <v>9404</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>124</v>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>5527</v>
+        <v>3813</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="4"/>
-        <v>-1.8469188421239565E-2</v>
+        <v>-0.32285562067128398</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -10161,11 +10161,11 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>1544</v>
+        <v>1488</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3.6269430051813469E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -10182,11 +10182,11 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="4"/>
-        <v>-3.6184210526315791E-2</v>
+        <v>-4.2763157894736843E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -10194,9 +10194,11 @@
         <v>137</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="33"/>
+        <v>237</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>251</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
       </c>
@@ -10205,11 +10207,11 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>3703</v>
+        <v>3636</v>
       </c>
       <c r="I19" s="37">
         <f t="shared" si="4"/>
-        <v>-3.4671532846715328E-2</v>
+        <v>-5.213764337851929E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -10217,9 +10219,11 @@
         <v>138</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="33"/>
+        <v>238</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>252</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>171</v>
       </c>
@@ -10229,11 +10233,11 @@
       </c>
       <c r="H20" s="3">
         <f>SUM(H12:H19)</f>
-        <v>22465</v>
+        <v>20589</v>
       </c>
       <c r="I20" s="38">
         <f t="shared" si="4"/>
-        <v>-6.2473917035305901E-2</v>
+        <v>-0.14076454386111342</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -10241,7 +10245,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
       <c r="G21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -10256,7 +10260,7 @@
         <v>140</v>
       </c>
       <c r="B23" s="32">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>124</v>
@@ -10267,7 +10271,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="32">
-        <v>4065</v>
+        <v>4030</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>124</v>
@@ -10278,7 +10282,7 @@
         <v>142</v>
       </c>
       <c r="B25" s="32">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>124</v>
@@ -10300,7 +10304,7 @@
         <v>144</v>
       </c>
       <c r="B27" s="32">
-        <v>5527</v>
+        <v>3813</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>124</v>
@@ -10311,7 +10315,7 @@
         <v>145</v>
       </c>
       <c r="B28" s="32">
-        <v>1544</v>
+        <v>1488</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>124</v>
@@ -10322,7 +10326,7 @@
         <v>146</v>
       </c>
       <c r="B29" s="32">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>124</v>
@@ -10333,7 +10337,7 @@
         <v>147</v>
       </c>
       <c r="B30" s="32">
-        <v>3703</v>
+        <v>3636</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>124</v>
@@ -10344,7 +10348,7 @@
         <v>148</v>
       </c>
       <c r="B31" s="32">
-        <v>22466</v>
+        <v>20587</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>124</v>
@@ -10484,7 +10488,9 @@
       <c r="A46" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="35" t="s">
+        <v>250</v>
+      </c>
       <c r="C46" s="36"/>
     </row>
   </sheetData>
@@ -10494,10 +10500,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10510,24 +10516,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="A1" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="29">
         <v>3.3</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="42">
         <v>0</v>
@@ -10559,7 +10565,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="32">
         <v>20736</v>
@@ -10571,7 +10577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="32">
         <v>9428</v>
@@ -10583,7 +10589,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="32">
         <v>9404</v>
@@ -10595,7 +10601,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="32">
         <v>100</v>
@@ -10604,7 +10610,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10709,21 +10715,21 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>124</v>
@@ -10731,11 +10737,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32">
-        <v>22466</v>
+        <v>20736</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>124</v>
@@ -10743,11 +10749,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32">
-        <v>30900</v>
+        <v>30140</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>124</v>
@@ -10755,11 +10761,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32">
-        <v>8434</v>
+        <v>9404</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>124</v>
@@ -10767,11 +10773,11 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="32">
-        <v>9335</v>
+        <v>9428</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>124</v>
@@ -10779,7 +10785,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35">
@@ -10828,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="32">
-        <v>8434</v>
+        <v>9404</v>
       </c>
       <c r="C26" s="32">
         <v>0</v>
@@ -10839,44 +10845,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B27" s="32">
-        <v>8434</v>
+        <v>9404</v>
       </c>
       <c r="C27" s="32">
-        <v>7700</v>
+        <v>7060</v>
       </c>
       <c r="D27" s="33">
-        <v>38600</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
-        <v>2173</v>
+        <v>2202</v>
       </c>
       <c r="B28" s="32">
-        <v>6799</v>
+        <v>7036</v>
       </c>
       <c r="C28" s="32">
-        <v>9335</v>
+        <v>9428</v>
       </c>
       <c r="D28" s="33">
-        <v>38600</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
-        <v>2509</v>
+        <v>2548</v>
       </c>
       <c r="B29" s="32">
         <v>0</v>
       </c>
       <c r="C29" s="32">
-        <v>9335</v>
+        <v>9428</v>
       </c>
       <c r="D29" s="33">
-        <v>31801</v>
+        <v>30164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -10886,12 +10892,20 @@
       <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>180</v>
-      </c>
+      <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10926,10 +10940,10 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -10945,11 +10959,11 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
-      <c r="N2" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
+      <c r="N2" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -10962,15 +10976,15 @@
       <c r="AL2" s="29"/>
       <c r="AM2" s="29"/>
       <c r="AN2" s="30"/>
-      <c r="AP2" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="50"/>
+      <c r="AP2" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="55"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -10984,14 +10998,14 @@
       <c r="K3" s="32"/>
       <c r="L3" s="33"/>
       <c r="N3" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O3" s="40">
         <v>0.45</v>
       </c>
       <c r="P3" s="41"/>
       <c r="AC3" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD3" s="32"/>
       <c r="AE3" s="32"/>
@@ -11005,7 +11019,7 @@
       <c r="AM3" s="32"/>
       <c r="AN3" s="33"/>
       <c r="AP3" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ3" s="40">
         <f>O3</f>
@@ -11015,100 +11029,100 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="N4" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="AC4" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH4" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP4" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AC4" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG4" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ4" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL4" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN4" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP4" s="31" t="s">
-        <v>217</v>
-      </c>
       <c r="AQ4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR4" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="AR4" s="33" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -11149,7 +11163,7 @@
         <v>3.4090000000000002E-2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N5" s="31">
         <v>2</v>
@@ -11198,7 +11212,7 @@
         <v>4.0680000000000001E-2</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP5" s="31">
         <v>2</v>
@@ -11249,7 +11263,7 @@
         <v>4.1540000000000001E-2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="31">
         <v>3</v>
@@ -11298,7 +11312,7 @@
         <v>4.8759999999999998E-2</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP6" s="31">
         <v>3</v>
@@ -11349,7 +11363,7 @@
         <v>5.04E-2</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="31">
         <v>4</v>
@@ -11398,7 +11412,7 @@
         <v>5.8369999999999998E-2</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP7" s="31">
         <v>4</v>
@@ -11449,7 +11463,7 @@
         <v>6.08E-2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="31">
         <v>5</v>
@@ -11498,7 +11512,7 @@
         <v>6.9639999999999994E-2</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP8" s="31">
         <v>5</v>
@@ -11549,7 +11563,7 @@
         <v>7.281E-2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N9" s="31">
         <v>6</v>
@@ -11598,7 +11612,7 @@
         <v>8.2650000000000001E-2</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP9" s="31">
         <v>6</v>
@@ -11649,7 +11663,7 @@
         <v>8.6459999999999995E-2</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N10" s="31">
         <v>7</v>
@@ -11698,7 +11712,7 @@
         <v>9.7470000000000001E-2</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP10" s="31">
         <v>7</v>
@@ -11749,7 +11763,7 @@
         <v>0.10170999999999999</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N11" s="31">
         <v>8</v>
@@ -11798,7 +11812,7 @@
         <v>0.11405</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP11" s="31">
         <v>8</v>
@@ -11849,7 +11863,7 @@
         <v>0.11844</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N12" s="31">
         <v>9</v>
@@ -11898,7 +11912,7 @@
         <v>0.13228000000000001</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP12" s="31">
         <v>9</v>
@@ -11949,7 +11963,7 @@
         <v>0.13641</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N13" s="31">
         <v>10</v>
@@ -11998,7 +12012,7 @@
         <v>0.15195</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP13" s="31">
         <v>10</v>
@@ -12049,7 +12063,7 @@
         <v>0.15531</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N14" s="31">
         <v>11</v>
@@ -12098,7 +12112,7 @@
         <v>0.17271</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP14" s="31">
         <v>11</v>
@@ -12149,7 +12163,7 @@
         <v>0.17469999999999999</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N15" s="34">
         <v>12</v>
@@ -12198,7 +12212,7 @@
         <v>0.19414000000000001</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP15" s="34">
         <v>12</v>
@@ -12206,14 +12220,14 @@
       <c r="AQ15" s="35">
         <v>0.95</v>
       </c>
-      <c r="AR15" s="53">
+      <c r="AR15" s="48">
         <f t="shared" si="1"/>
         <v>6.9639999999999994E-2</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -12227,7 +12241,7 @@
       <c r="K16" s="32"/>
       <c r="L16" s="33"/>
       <c r="AC16" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
@@ -12243,7 +12257,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -12257,16 +12271,16 @@
       <c r="K17" s="32"/>
       <c r="L17" s="33"/>
       <c r="N17" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O17" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="30" t="s">
-        <v>216</v>
-      </c>
       <c r="AC17" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
@@ -12280,54 +12294,54 @@
       <c r="AM17" s="32"/>
       <c r="AN17" s="33"/>
       <c r="AP17" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ17" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR17" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="AR17" s="30" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="D18" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="H18" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="I18" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="J18" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="K18" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="L18" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="M18" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="N18" s="31">
         <v>2</v>
@@ -12340,43 +12354,43 @@
         <v>0</v>
       </c>
       <c r="AC18" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD18" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AD18" s="32" t="s">
+      <c r="AE18" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="AE18" s="32" t="s">
+      <c r="AF18" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="AF18" s="32" t="s">
+      <c r="AG18" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="AG18" s="32" t="s">
+      <c r="AH18" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AH18" s="32" t="s">
+      <c r="AI18" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="AI18" s="32" t="s">
+      <c r="AJ18" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="AJ18" s="32" t="s">
+      <c r="AK18" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="AK18" s="32" t="s">
+      <c r="AL18" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="AL18" s="32" t="s">
+      <c r="AM18" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="AM18" s="32" t="s">
+      <c r="AN18" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AN18" s="33" t="s">
+      <c r="AO18" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="AP18" s="31">
         <v>2</v>
@@ -12427,7 +12441,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N19" s="31">
         <v>3</v>
@@ -12476,7 +12490,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP19" s="31">
         <v>3</v>
@@ -12527,7 +12541,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N20" s="31">
         <v>4</v>
@@ -12576,7 +12590,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP20" s="31">
         <v>4</v>
@@ -12627,7 +12641,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N21" s="31">
         <v>5</v>
@@ -12676,7 +12690,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP21" s="31">
         <v>5</v>
@@ -12727,7 +12741,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N22" s="31">
         <v>6</v>
@@ -12776,7 +12790,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP22" s="31">
         <v>6</v>
@@ -12827,7 +12841,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N23" s="31">
         <v>7</v>
@@ -12876,7 +12890,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP23" s="31">
         <v>7</v>
@@ -12927,7 +12941,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N24" s="31">
         <v>8</v>
@@ -12976,7 +12990,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP24" s="31">
         <v>8</v>
@@ -13027,7 +13041,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N25" s="31">
         <v>9</v>
@@ -13076,7 +13090,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP25" s="31">
         <v>9</v>
@@ -13127,7 +13141,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N26" s="31">
         <v>10</v>
@@ -13176,7 +13190,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP26" s="31">
         <v>10</v>
@@ -13227,7 +13241,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N27" s="31">
         <v>11</v>
@@ -13276,7 +13290,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP27" s="31">
         <v>11</v>
@@ -13327,7 +13341,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N28" s="34">
         <v>12</v>
@@ -13376,7 +13390,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP28" s="34">
         <v>12</v>
@@ -13384,7 +13398,7 @@
       <c r="AQ28" s="35">
         <v>0.95</v>
       </c>
-      <c r="AR28" s="53">
+      <c r="AR28" s="48">
         <f t="shared" si="3"/>
         <v>1.25E-3</v>
       </c>
@@ -13427,7 +13441,7 @@
         <v>2.64E-3</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC29" s="31">
         <v>0.8</v>
@@ -13466,12 +13480,12 @@
         <v>1.25E-3</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -13485,7 +13499,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="33"/>
       <c r="AC30" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
@@ -13501,7 +13515,7 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -13515,16 +13529,16 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
       <c r="N31" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O31" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="P31" s="30" t="s">
-        <v>216</v>
-      </c>
       <c r="AC31" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
@@ -13538,54 +13552,54 @@
       <c r="AM31" s="32"/>
       <c r="AN31" s="33"/>
       <c r="AP31" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ31" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR31" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="AR31" s="30" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="H32" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="I32" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="J32" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="K32" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="L32" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="M32" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="N32" s="31">
         <v>2</v>
@@ -13598,43 +13612,43 @@
         <v>0</v>
       </c>
       <c r="AC32" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD32" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AD32" s="32" t="s">
+      <c r="AE32" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="AE32" s="32" t="s">
+      <c r="AF32" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="AF32" s="32" t="s">
+      <c r="AG32" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="AG32" s="32" t="s">
+      <c r="AH32" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AH32" s="32" t="s">
+      <c r="AI32" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="AI32" s="32" t="s">
+      <c r="AJ32" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="AJ32" s="32" t="s">
+      <c r="AK32" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="AK32" s="32" t="s">
+      <c r="AL32" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="AL32" s="32" t="s">
+      <c r="AM32" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="AM32" s="32" t="s">
+      <c r="AN32" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AN32" s="33" t="s">
+      <c r="AO32" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="AO32" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="AP32" s="31">
         <v>2</v>
@@ -13685,7 +13699,7 @@
         <v>2.9989999999999999E-2</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N33" s="31">
         <v>3</v>
@@ -13734,7 +13748,7 @@
         <v>3.2870000000000003E-2</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP33" s="31">
         <v>3</v>
@@ -13785,7 +13799,7 @@
         <v>3.7440000000000001E-2</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N34" s="31">
         <v>4</v>
@@ -13834,7 +13848,7 @@
         <v>4.0960000000000003E-2</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP34" s="31">
         <v>4</v>
@@ -13885,7 +13899,7 @@
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N35" s="31">
         <v>5</v>
@@ -13934,7 +13948,7 @@
         <v>5.0560000000000001E-2</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP35" s="31">
         <v>5</v>
@@ -13985,7 +13999,7 @@
         <v>5.67E-2</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N36" s="31">
         <v>6</v>
@@ -14034,7 +14048,7 @@
         <v>6.1830000000000003E-2</v>
       </c>
       <c r="AO36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP36" s="31">
         <v>6</v>
@@ -14085,7 +14099,7 @@
         <v>6.8709999999999993E-2</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N37" s="31">
         <v>7</v>
@@ -14134,7 +14148,7 @@
         <v>7.485E-2</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP37" s="31">
         <v>7</v>
@@ -14185,7 +14199,7 @@
         <v>8.2360000000000003E-2</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N38" s="31">
         <v>8</v>
@@ -14234,7 +14248,7 @@
         <v>8.9660000000000004E-2</v>
       </c>
       <c r="AO38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP38" s="31">
         <v>8</v>
@@ -14285,7 +14299,7 @@
         <v>9.7610000000000002E-2</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N39" s="31">
         <v>9</v>
@@ -14334,7 +14348,7 @@
         <v>0.10624</v>
       </c>
       <c r="AO39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP39" s="31">
         <v>9</v>
@@ -14385,7 +14399,7 @@
         <v>0.11434</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N40" s="31">
         <v>10</v>
@@ -14434,7 +14448,7 @@
         <v>0.12447999999999999</v>
       </c>
       <c r="AO40" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP40" s="31">
         <v>10</v>
@@ -14485,7 +14499,7 @@
         <v>0.13231000000000001</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N41" s="31">
         <v>11</v>
@@ -14534,7 +14548,7 @@
         <v>0.14413999999999999</v>
       </c>
       <c r="AO41" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP41" s="31">
         <v>11</v>
@@ -14585,7 +14599,7 @@
         <v>0.15121000000000001</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N42" s="34">
         <v>12</v>
@@ -14634,7 +14648,7 @@
         <v>0.16491</v>
       </c>
       <c r="AO42" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP42" s="34">
         <v>12</v>
@@ -14642,7 +14656,7 @@
       <c r="AQ42" s="35">
         <v>0.95</v>
       </c>
-      <c r="AR42" s="53">
+      <c r="AR42" s="48">
         <f t="shared" si="5"/>
         <v>6.1830000000000003E-2</v>
       </c>
@@ -14685,7 +14699,7 @@
         <v>0.17058999999999999</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC43" s="31">
         <v>0.8</v>
@@ -14724,12 +14738,12 @@
         <v>0.18634000000000001</v>
       </c>
       <c r="AO43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -14743,7 +14757,7 @@
       <c r="K44" s="32"/>
       <c r="L44" s="33"/>
       <c r="AC44" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
@@ -14759,7 +14773,7 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -14773,7 +14787,7 @@
       <c r="K45" s="32"/>
       <c r="L45" s="33"/>
       <c r="AC45" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
@@ -14789,100 +14803,100 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="C46" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="D46" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="E46" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="H46" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="I46" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="J46" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J46" s="32" t="s">
+      <c r="K46" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="L46" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="M46" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="N46" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O46" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P46" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="P46" s="30" t="s">
+      <c r="AC46" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD46" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE46" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF46" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG46" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH46" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI46" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ46" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK46" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL46" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM46" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN46" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP46" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="AC46" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD46" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE46" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF46" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG46" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH46" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI46" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ46" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK46" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL46" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN46" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP46" s="28" t="s">
-        <v>217</v>
-      </c>
       <c r="AQ46" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR46" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="AR46" s="30" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -14923,7 +14937,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N47" s="31">
         <v>2</v>
@@ -14972,7 +14986,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP47" s="31">
         <v>2</v>
@@ -15023,7 +15037,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N48" s="31">
         <v>3</v>
@@ -15072,7 +15086,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP48" s="31">
         <v>3</v>
@@ -15123,7 +15137,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N49" s="31">
         <v>4</v>
@@ -15172,7 +15186,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO49" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP49" s="31">
         <v>4</v>
@@ -15223,7 +15237,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N50" s="31">
         <v>5</v>
@@ -15272,7 +15286,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP50" s="31">
         <v>5</v>
@@ -15323,7 +15337,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N51" s="31">
         <v>6</v>
@@ -15372,7 +15386,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP51" s="31">
         <v>6</v>
@@ -15423,7 +15437,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N52" s="31">
         <v>7</v>
@@ -15472,7 +15486,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP52" s="31">
         <v>7</v>
@@ -15523,7 +15537,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N53" s="31">
         <v>8</v>
@@ -15572,7 +15586,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP53" s="31">
         <v>8</v>
@@ -15623,7 +15637,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N54" s="31">
         <v>9</v>
@@ -15672,7 +15686,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP54" s="31">
         <v>9</v>
@@ -15723,7 +15737,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N55" s="31">
         <v>10</v>
@@ -15772,7 +15786,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO55" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP55" s="31">
         <v>10</v>
@@ -15823,7 +15837,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N56" s="31">
         <v>11</v>
@@ -15872,7 +15886,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO56" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP56" s="31">
         <v>11</v>
@@ -15923,7 +15937,7 @@
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N57" s="34">
         <v>12</v>
@@ -15972,7 +15986,7 @@
         <v>6.5500000000000003E-3</v>
       </c>
       <c r="AO57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AP57" s="34">
         <v>12</v>
@@ -15980,14 +15994,14 @@
       <c r="AQ57" s="35">
         <v>0.95</v>
       </c>
-      <c r="AR57" s="53">
+      <c r="AR57" s="48">
         <f t="shared" si="7"/>
         <v>6.5500000000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -16001,7 +16015,7 @@
       <c r="K58" s="32"/>
       <c r="L58" s="33"/>
       <c r="AC58" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
@@ -16043,7 +16057,7 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -16057,7 +16071,7 @@
       <c r="K60" s="32"/>
       <c r="L60" s="33"/>
       <c r="AC60" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
@@ -16134,7 +16148,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -16148,91 +16162,91 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="D4" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+        <v>224</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="N5" s="56"/>
+      <c r="M5" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="32">
         <v>1.5200000000000001E-3</v>
@@ -16264,18 +16278,18 @@
         <f>B27</f>
         <v>1.2700000000000001E-3</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="51">
         <f>K6-L6</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="N6" s="37">
-        <f>IFERROR((K6-L6)/L6,0)</f>
+        <f t="shared" ref="N6:N14" si="0">IFERROR((K6-L6)/L6,0)</f>
         <v>0.19685039370078738</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="32">
         <v>7.1799999999999998E-3</v>
@@ -16296,29 +16310,29 @@
         <v>0.99</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" ref="J7:J13" si="0">A7</f>
+        <f t="shared" ref="J7:J13" si="1">A7</f>
         <v xml:space="preserve"> main_wing                            </v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K7:K13" si="1">B7</f>
+        <f t="shared" ref="K7:K13" si="2">B7</f>
         <v>7.1799999999999998E-3</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7:L13" si="2">B28</f>
+        <f t="shared" ref="L7:L13" si="3">B28</f>
         <v>7.2100000000000003E-3</v>
       </c>
-      <c r="M7" s="57">
-        <f t="shared" ref="M7:M14" si="3">K7-L7</f>
+      <c r="M7" s="51">
+        <f t="shared" ref="M7:M14" si="4">K7-L7</f>
         <v>-3.0000000000000512E-5</v>
       </c>
       <c r="N7" s="37">
-        <f>IFERROR((K7-L7)/L7,0)</f>
+        <f t="shared" si="0"/>
         <v>-4.1608876560333581E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="32">
         <v>2.3900000000000002E-3</v>
@@ -16339,29 +16353,29 @@
         <v>0.99</v>
       </c>
       <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> horizontal_stabilizer                </v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="M8" s="51">
+        <f t="shared" si="4"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="N8" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> horizontal_stabilizer                </v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="2"/>
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="M8" s="57">
-        <f t="shared" si="3"/>
-        <v>3.3E-4</v>
-      </c>
-      <c r="N8" s="37">
-        <f>IFERROR((K8-L8)/L8,0)</f>
         <v>0.16019417475728154</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="32">
         <v>3.4000000000000002E-4</v>
@@ -16382,29 +16396,29 @@
         <v>0.99</v>
       </c>
       <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Pylon (TOTAL)                        </v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="51">
+        <f t="shared" si="4"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="N9" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Pylon (TOTAL)                        </v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="57">
-        <f t="shared" si="3"/>
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="N9" s="37">
-        <f>IFERROR((K9-L9)/L9,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="32">
         <v>8.6800000000000002E-3</v>
@@ -16425,29 +16439,29 @@
         <v>0.99</v>
       </c>
       <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> fuselage                             </v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6800000000000002E-3</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>7.9100000000000004E-3</v>
+      </c>
+      <c r="M10" s="51">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999985E-4</v>
+      </c>
+      <c r="N10" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> fuselage                             </v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6800000000000002E-3</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="2"/>
-        <v>7.9100000000000004E-3</v>
-      </c>
-      <c r="M10" s="57">
-        <f t="shared" si="3"/>
-        <v>7.6999999999999985E-4</v>
-      </c>
-      <c r="N10" s="37">
-        <f>IFERROR((K10-L10)/L10,0)</f>
         <v>9.7345132743362803E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="32">
         <v>8.4999999999999995E-4</v>
@@ -16468,133 +16482,133 @@
         <v>0.99</v>
       </c>
       <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> turbofan  (EACH)                     </v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="51">
+        <f t="shared" si="4"/>
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="N11" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> turbofan  (EACH)                     </v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="57">
-        <f t="shared" si="3"/>
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="N11" s="37">
-        <f>IFERROR((K11-L11)/L11,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="32">
         <v>1.39E-3</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Miscellaneous Drag                   </v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.39E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M12" s="51">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000006E-4</v>
+      </c>
+      <c r="N12" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miscellaneous Drag                   </v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>1.39E-3</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M12" s="57">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000006E-4</v>
-      </c>
-      <c r="N12" s="37">
-        <f>IFERROR((K12-L12)/L12,0)</f>
         <v>0.15833333333333341</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="32">
         <v>0</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Drag Coefficient Increment           </v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="51">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N13" s="37">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Drag Coefficient Increment           </v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="57">
-        <f t="shared" si="3"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="N13" s="37">
-        <f>IFERROR((K13-L13)/L13,0)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>171</v>
@@ -16608,17 +16622,17 @@
         <v>2.4650000000000002E-2</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3000000000000034E-3</v>
       </c>
       <c r="N14" s="38">
-        <f>IFERROR((K14-L14)/L14,0)</f>
+        <f t="shared" si="0"/>
         <v>-9.3306288032454499E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="32">
         <v>2.3210000000000001E-2</v>
@@ -16627,16 +16641,16 @@
         <v>535.9</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -16670,7 +16684,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -16690,7 +16704,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -16704,76 +16718,76 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="E24" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="F24" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="32">
         <v>1.2700000000000001E-3</v>
@@ -16796,7 +16810,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="32">
         <v>7.2100000000000003E-3</v>
@@ -16819,7 +16833,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="32">
         <v>2.0600000000000002E-3</v>
@@ -16842,7 +16856,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="32">
         <v>0</v>
@@ -16865,7 +16879,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="32">
         <v>7.9100000000000004E-3</v>
@@ -16888,7 +16902,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="32">
         <v>0</v>
@@ -16911,74 +16925,74 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="32">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="32">
         <v>2.4649999999999998E-2</v>
@@ -16987,16 +17001,16 @@
         <v>595</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17030,7 +17044,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>

--- a/Data/E170.xlsx
+++ b/Data/E170.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="255">
   <si>
     <t>Wing</t>
   </si>
@@ -776,9 +776,6 @@
     <t xml:space="preserve"> Monday, 09. July 2018 07:05:06 PM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tuesday, 10. July 2018 09:45:00 PM</t>
-  </si>
-  <si>
     <t>Wednesday, 11. July 2018 08:29:54</t>
   </si>
   <si>
@@ -789,14 +786,24 @@
   </si>
   <si>
     <t>WERED</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>Tuesday, 17. July 2018 09:24:30 PM</t>
+  </si>
+  <si>
+    <t>Normalizando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -998,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,6 +1110,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,13 +1568,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480</c:v>
+                  <c:v>1389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2202</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2548</c:v>
+                  <c:v>2389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,11 +1611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104697760"/>
-        <c:axId val="-104703744"/>
+        <c:axId val="-1707826112"/>
+        <c:axId val="-1707820128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104697760"/>
+        <c:axId val="-1707826112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,12 +1705,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104703744"/>
+        <c:crossAx val="-1707820128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-104703744"/>
+        <c:axId val="-1707820128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1814,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104697760"/>
+        <c:crossAx val="-1707826112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2212,11 +2221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104699392"/>
-        <c:axId val="-104700480"/>
+        <c:axId val="-1707819040"/>
+        <c:axId val="-1707820672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104699392"/>
+        <c:axId val="-1707819040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2322,12 +2331,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104700480"/>
+        <c:crossAx val="-1707820672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-104700480"/>
+        <c:axId val="-1707820672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2440,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104699392"/>
+        <c:crossAx val="-1707819040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2838,11 +2847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104708640"/>
-        <c:axId val="-104701024"/>
+        <c:axId val="-1707822304"/>
+        <c:axId val="-1707815232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104708640"/>
+        <c:axId val="-1707822304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2948,12 +2957,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104701024"/>
+        <c:crossAx val="-1707815232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-104701024"/>
+        <c:axId val="-1707815232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,7 +3066,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104708640"/>
+        <c:crossAx val="-1707822304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3175,6 +3184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3463,11 +3473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104705920"/>
-        <c:axId val="-104707552"/>
+        <c:axId val="-1707816864"/>
+        <c:axId val="-1707817952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104705920"/>
+        <c:axId val="-1707816864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -3512,6 +3522,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3572,12 +3583,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104707552"/>
+        <c:crossAx val="-1707817952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-104707552"/>
+        <c:axId val="-1707817952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,6 +3631,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3680,7 +3692,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104705920"/>
+        <c:crossAx val="-1707816864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3694,6 +3706,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4085,11 +4098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104697216"/>
-        <c:axId val="-104711360"/>
+        <c:axId val="-1707816320"/>
+        <c:axId val="-1707829376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104697216"/>
+        <c:axId val="-1707816320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -4194,12 +4207,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104711360"/>
+        <c:crossAx val="-1707829376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-104711360"/>
+        <c:axId val="-1707829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4315,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104697216"/>
+        <c:crossAx val="-1707816320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7593,7 +7606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -10197,7 +10210,7 @@
         <v>237</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
@@ -10222,7 +10235,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>171</v>
@@ -10486,10 +10499,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>249</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>250</v>
       </c>
       <c r="C46" s="36"/>
     </row>
@@ -10500,10 +10513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10713,7 +10726,7 @@
         <v>30164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>180</v>
       </c>
@@ -10723,7 +10736,7 @@
       </c>
       <c r="D17" s="55"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>182</v>
       </c>
@@ -10735,7 +10748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>183</v>
       </c>
@@ -10747,7 +10760,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>184</v>
       </c>
@@ -10759,7 +10772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>185</v>
       </c>
@@ -10771,7 +10784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>186</v>
       </c>
@@ -10783,7 +10796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>187</v>
       </c>
@@ -10795,7 +10808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>172</v>
       </c>
@@ -10812,7 +10825,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>177</v>
       </c>
@@ -10829,7 +10842,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>0</v>
       </c>
@@ -10842,10 +10855,13 @@
       <c r="D26" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
-        <v>1480</v>
+        <v>1389</v>
       </c>
       <c r="B27" s="32">
         <v>9404</v>
@@ -10856,10 +10872,14 @@
       <c r="D27" s="33">
         <v>37200</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="58">
+        <f>A27/A12-1</f>
+        <v>3.656716417910455E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
-        <v>2202</v>
+        <v>2067</v>
       </c>
       <c r="B28" s="32">
         <v>7036</v>
@@ -10870,10 +10890,14 @@
       <c r="D28" s="33">
         <v>37200</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="58">
+        <f t="shared" ref="F28:F29" si="0">A28/A13-1</f>
+        <v>2.3267326732673288E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
-        <v>2548</v>
+        <v>2389</v>
       </c>
       <c r="B29" s="32">
         <v>0</v>
@@ -10884,27 +10908,31 @@
       <c r="D29" s="33">
         <v>30164</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="58">
+        <f t="shared" si="0"/>
+        <v>2.9741379310344929E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10922,8 +10950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11774,6 +11802,10 @@
       <c r="P11" s="33">
         <f t="shared" si="0"/>
         <v>1.91E-3</v>
+      </c>
+      <c r="Q11" s="59">
+        <f>P11/AR11-1</f>
+        <v>-0.12785388127853881</v>
       </c>
       <c r="AC11" s="31">
         <v>0.6</v>
@@ -16125,8 +16157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16643,9 +16675,6 @@
       <c r="D15" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="F15" s="32" t="s">
         <v>226</v>
       </c>
@@ -16662,7 +16691,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -16671,29 +16700,23 @@
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -16702,12 +16725,12 @@
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -16716,7 +16739,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>246</v>
       </c>
@@ -16739,7 +16762,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>223</v>
       </c>
@@ -16762,7 +16785,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>223</v>
       </c>
@@ -16785,7 +16808,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>227</v>
       </c>
@@ -16808,7 +16831,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>228</v>
       </c>
@@ -16831,7 +16854,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>229</v>
       </c>
@@ -16853,8 +16876,15 @@
       <c r="G29" s="33">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32">
+        <v>610.45899999999995</v>
+      </c>
+      <c r="L29" s="32">
+        <v>2.164E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>230</v>
       </c>
@@ -16876,8 +16906,19 @@
       <c r="G30" s="33">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" s="32">
+        <f>B15*C15/K29</f>
+        <v>2.0375224216532151E-2</v>
+      </c>
+      <c r="L30" s="32">
+        <f>K30/0.02164-1</f>
+        <v>-5.8446200714780461E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>231</v>
       </c>
@@ -16900,7 +16941,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>232</v>
       </c>

--- a/Data/E170.xlsx
+++ b/Data/E170.xlsx
@@ -1092,6 +1092,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,8 +1112,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,13 +1568,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1389</c:v>
+                  <c:v>1356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2067</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2389</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,11 +1611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1707826112"/>
-        <c:axId val="-1707820128"/>
+        <c:axId val="1465078496"/>
+        <c:axId val="1465088288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1707826112"/>
+        <c:axId val="1465078496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,12 +1705,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707820128"/>
+        <c:crossAx val="1465088288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1707820128"/>
+        <c:axId val="1465088288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1814,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707826112"/>
+        <c:crossAx val="1465078496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1932,7 +1932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,11 +2220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1707819040"/>
-        <c:axId val="-1707820672"/>
+        <c:axId val="1465084480"/>
+        <c:axId val="1465079040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1707819040"/>
+        <c:axId val="1465084480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2270,7 +2269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2331,12 +2329,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707820672"/>
+        <c:crossAx val="1465079040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1707820672"/>
+        <c:axId val="1465079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2440,7 +2437,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707819040"/>
+        <c:crossAx val="1465084480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2454,7 +2451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2558,7 +2554,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2847,11 +2842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1707822304"/>
-        <c:axId val="-1707815232"/>
+        <c:axId val="1465088832"/>
+        <c:axId val="1465082848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1707822304"/>
+        <c:axId val="1465088832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2896,7 +2891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2957,12 +2951,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707815232"/>
+        <c:crossAx val="1465082848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1707815232"/>
+        <c:axId val="1465082848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +2999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3066,7 +3059,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707822304"/>
+        <c:crossAx val="1465088832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3080,7 +3073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3184,7 +3176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3473,11 +3464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1707816864"/>
-        <c:axId val="-1707817952"/>
+        <c:axId val="1465092640"/>
+        <c:axId val="1465090464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1707816864"/>
+        <c:axId val="1465092640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -3522,7 +3513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3583,12 +3573,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707817952"/>
+        <c:crossAx val="1465090464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1707817952"/>
+        <c:axId val="1465090464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3692,7 +3681,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707816864"/>
+        <c:crossAx val="1465092640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3706,7 +3695,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4098,11 +4086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1707816320"/>
-        <c:axId val="-1707829376"/>
+        <c:axId val="1465092096"/>
+        <c:axId val="1465093184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1707816320"/>
+        <c:axId val="1465092096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -4207,12 +4195,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707829376"/>
+        <c:crossAx val="1465093184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1707829376"/>
+        <c:axId val="1465093184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,7 +4303,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1707816320"/>
+        <c:crossAx val="1465092096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8659,10 +8647,10 @@
       <c r="A109" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="53"/>
+      <c r="C109" s="55"/>
     </row>
     <row r="110" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
@@ -8686,10 +8674,10 @@
       <c r="A112" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="53"/>
+      <c r="C112" s="55"/>
     </row>
     <row r="113" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -8713,10 +8701,10 @@
       <c r="A115" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="53"/>
+      <c r="C115" s="55"/>
     </row>
     <row r="116" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
@@ -8740,10 +8728,10 @@
       <c r="A118" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="53"/>
+      <c r="C118" s="55"/>
     </row>
     <row r="119" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
@@ -8767,10 +8755,10 @@
       <c r="A121" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="53"/>
+      <c r="C121" s="55"/>
     </row>
     <row r="122" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
@@ -8794,10 +8782,10 @@
       <c r="A124" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="B124" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C124" s="53"/>
+      <c r="C124" s="55"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
@@ -8850,10 +8838,10 @@
       <c r="A130" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C130" s="53"/>
+      <c r="C130" s="55"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
@@ -8877,10 +8865,10 @@
       <c r="A133" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="53"/>
+      <c r="C133" s="55"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
@@ -8904,10 +8892,10 @@
       <c r="A136" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="53"/>
+      <c r="C136" s="55"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
@@ -10515,8 +10503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10529,14 +10517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -10731,10 +10719,10 @@
         <v>180</v>
       </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
@@ -10861,7 +10849,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
-        <v>1389</v>
+        <v>1356</v>
       </c>
       <c r="B27" s="32">
         <v>9404</v>
@@ -10872,14 +10860,14 @@
       <c r="D27" s="33">
         <v>37200</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="52">
         <f>A27/A12-1</f>
-        <v>3.656716417910455E-2</v>
+        <v>1.1940298507462588E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
-        <v>2067</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="32">
         <v>7036</v>
@@ -10890,14 +10878,14 @@
       <c r="D28" s="33">
         <v>37200</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="52">
         <f t="shared" ref="F28:F29" si="0">A28/A13-1</f>
-        <v>2.3267326732673288E-2</v>
+        <v>-9.9009900990099098E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
-        <v>2389</v>
+        <v>2323</v>
       </c>
       <c r="B29" s="32">
         <v>0</v>
@@ -10908,9 +10896,9 @@
       <c r="D29" s="33">
         <v>30164</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="52">
         <f t="shared" si="0"/>
-        <v>2.9741379310344929E-2</v>
+        <v>1.293103448275934E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10987,11 +10975,11 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="30"/>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -11004,11 +10992,11 @@
       <c r="AL2" s="29"/>
       <c r="AM2" s="29"/>
       <c r="AN2" s="30"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AP2" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="55"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -11803,7 +11791,7 @@
         <f t="shared" si="0"/>
         <v>1.91E-3</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="53">
         <f>P11/AR11-1</f>
         <v>-0.12785388127853881</v>
       </c>
@@ -16271,10 +16259,10 @@
       <c r="L5" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="57"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">

--- a/Data/E170.xlsx
+++ b/Data/E170.xlsx
@@ -17,8 +17,9 @@
     <sheet name="Mission" sheetId="3" r:id="rId3"/>
     <sheet name="Weight_breakdown" sheetId="4" r:id="rId4"/>
     <sheet name="Payload_Range" sheetId="5" r:id="rId5"/>
-    <sheet name="Compr_Drag" sheetId="6" r:id="rId6"/>
-    <sheet name="Parasite_Drag" sheetId="7" r:id="rId7"/>
+    <sheet name="Engine" sheetId="8" r:id="rId6"/>
+    <sheet name="Compr_Drag" sheetId="6" r:id="rId7"/>
+    <sheet name="Parasite_Drag" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="280">
   <si>
     <t>Wing</t>
   </si>
@@ -791,10 +792,85 @@
     <t>DIFF</t>
   </si>
   <si>
-    <t>Tuesday, 17. July 2018 09:24:30 PM</t>
-  </si>
-  <si>
     <t>Normalizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGE    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nm      </t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuesday, 24. July 2018 07:30:13 PM</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.005*BOW</t>
+  </si>
+  <si>
+    <t>oswald 1.</t>
+  </si>
+  <si>
+    <t>Efeitos:</t>
+  </si>
+  <si>
+    <t>Mexer no oswald</t>
+  </si>
+  <si>
+    <t>aparentemente mexe</t>
+  </si>
+  <si>
+    <t>a mesma coisa em cada condicao</t>
+  </si>
+  <si>
+    <t>sendo mais expressivo em 1 e 2</t>
+  </si>
+  <si>
+    <t>Conclusao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O BOW afeta os pontos </t>
+  </si>
+  <si>
+    <t>1 e 3 sendo mais</t>
+  </si>
+  <si>
+    <t>expressivo em 1</t>
+  </si>
+  <si>
+    <t>Arrasto Induzido</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>motor pressure_ratio fan 1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O motor realmente vai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sentido de deslocar a </t>
+  </si>
+  <si>
+    <t>curva para a direita se</t>
+  </si>
+  <si>
+    <t>o SFC diminui</t>
+  </si>
+  <si>
+    <t>AR 8.6 p 8.26</t>
+  </si>
+  <si>
+    <t>Mesma conclusao</t>
+  </si>
+  <si>
+    <t>que o oswald</t>
   </si>
 </sst>
 </file>
@@ -1568,13 +1644,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1356</c:v>
+                  <c:v>1381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2323</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,7 +1668,137 @@
                   <c:v>9404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7036</c:v>
+                  <c:v>7035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Payload_Range!$AB$44:$AB$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Payload_Range!$AC$44:$AC$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7075</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1611,11 +1817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1465078496"/>
-        <c:axId val="1465088288"/>
+        <c:axId val="1793981136"/>
+        <c:axId val="1793987120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1465078496"/>
+        <c:axId val="1793981136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,12 +1911,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465088288"/>
+        <c:crossAx val="1793987120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465088288"/>
+        <c:axId val="1793987120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +2020,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465078496"/>
+        <c:crossAx val="1793981136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1932,6 +2138,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2220,11 +2427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1465084480"/>
-        <c:axId val="1465079040"/>
+        <c:axId val="1793986032"/>
+        <c:axId val="1793987664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1465084480"/>
+        <c:axId val="1793986032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2269,6 +2476,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2329,12 +2537,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465079040"/>
+        <c:crossAx val="1793987664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465079040"/>
+        <c:axId val="1793987664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,6 +2585,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2437,7 +2646,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465084480"/>
+        <c:crossAx val="1793986032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2451,6 +2660,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2554,6 +2764,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2842,11 +3053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1465088832"/>
-        <c:axId val="1465082848"/>
+        <c:axId val="1793982224"/>
+        <c:axId val="1793983856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1465088832"/>
+        <c:axId val="1793982224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -2891,6 +3102,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2951,12 +3163,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465082848"/>
+        <c:crossAx val="1793983856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465082848"/>
+        <c:axId val="1793983856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,6 +3211,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3059,7 +3272,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465088832"/>
+        <c:crossAx val="1793982224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3073,6 +3286,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3464,11 +3678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1465092640"/>
-        <c:axId val="1465090464"/>
+        <c:axId val="1793973520"/>
+        <c:axId val="1793974064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1465092640"/>
+        <c:axId val="1793973520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -3573,12 +3787,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465090464"/>
+        <c:crossAx val="1793974064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465090464"/>
+        <c:axId val="1793974064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3895,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465092640"/>
+        <c:crossAx val="1793973520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4086,11 +4300,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1465092096"/>
-        <c:axId val="1465093184"/>
+        <c:axId val="1793976784"/>
+        <c:axId val="1793662048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1465092096"/>
+        <c:axId val="1793976784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95000000000000007"/>
@@ -4195,12 +4409,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465093184"/>
+        <c:crossAx val="1793662048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1465093184"/>
+        <c:axId val="1793662048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +4517,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1465092096"/>
+        <c:crossAx val="1793976784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10501,10 +10715,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10598,7 +10812,9 @@
       <c r="C7" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="33">
+        <v>1600</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -10714,7 +10930,7 @@
         <v>30164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>180</v>
       </c>
@@ -10724,7 +10940,7 @@
       </c>
       <c r="D17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>182</v>
       </c>
@@ -10735,20 +10951,28 @@
       <c r="D18" s="30" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f>C18-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32">
-        <v>20736</v>
+        <v>20737</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f>C19-B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>184</v>
       </c>
@@ -10759,8 +10983,12 @@
       <c r="D20" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <f>C20-B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>185</v>
       </c>
@@ -10771,8 +10999,12 @@
       <c r="D21" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <f>C21-B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>186</v>
       </c>
@@ -10783,22 +11015,26 @@
       <c r="D22" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <f>C22-B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>187</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>173</v>
@@ -10809,13 +11045,10 @@
       <c r="D24" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>178</v>
@@ -10826,11 +11059,8 @@
       <c r="D25" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>0</v>
       </c>
@@ -10846,31 +11076,38 @@
       <c r="F26" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
-        <v>1356</v>
+        <v>1381</v>
       </c>
       <c r="B27" s="32">
         <v>9404</v>
       </c>
       <c r="C27" s="32">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="D27" s="33">
         <v>37200</v>
       </c>
       <c r="F27" s="52">
         <f>A27/A12-1</f>
-        <v>1.1940298507462588E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.0597014925373145E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <f>A27-A12</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="B28" s="32">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="C28" s="32">
         <v>9428</v>
@@ -10880,12 +11117,16 @@
       </c>
       <c r="F28" s="52">
         <f t="shared" ref="F28:F29" si="0">A28/A13-1</f>
-        <v>-9.9009900990099098E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.4059405940594143E-3</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G29" si="1">A28-A13</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
-        <v>2323</v>
+        <v>2362</v>
       </c>
       <c r="B29" s="32">
         <v>0</v>
@@ -10894,40 +11135,1224 @@
         <v>9428</v>
       </c>
       <c r="D29" s="33">
-        <v>30164</v>
+        <v>30165</v>
       </c>
       <c r="F29" s="52">
         <f t="shared" si="0"/>
-        <v>1.293103448275934E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8103448275861966E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="J35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="57"/>
+      <c r="S35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="V35" s="57"/>
+      <c r="AB35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE35" s="57"/>
+      <c r="AG35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN35" s="57"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="J36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29">
+        <v>37200</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29">
+        <v>37200</v>
+      </c>
+      <c r="V36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29">
+        <v>37200</v>
+      </c>
+      <c r="AE36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29">
+        <v>37200</v>
+      </c>
+      <c r="AN36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29">
+        <v>37200</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32">
+        <v>20795</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32">
+        <v>20737</v>
+      </c>
+      <c r="V37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32">
+        <v>20737</v>
+      </c>
+      <c r="AE37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK37" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32">
+        <v>20737</v>
+      </c>
+      <c r="AN37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32">
+        <v>20737</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32">
+        <v>30140</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32">
+        <v>30140</v>
+      </c>
+      <c r="V38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32">
+        <v>30140</v>
+      </c>
+      <c r="AE38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32">
+        <v>30140</v>
+      </c>
+      <c r="AN38" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32">
+        <v>30140</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32">
+        <v>9404</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32">
+        <v>9404</v>
+      </c>
+      <c r="V39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AE39" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AN39" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32">
+        <v>9404</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32">
+        <v>9428</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32">
+        <v>9428</v>
+      </c>
+      <c r="V40" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AE40" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK40" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AN40" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32">
+        <v>9428</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35">
+        <v>1600</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="S41" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35">
+        <v>1600</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB41" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35">
+        <v>1600</v>
+      </c>
+      <c r="AE41" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK41" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35">
+        <v>1600</v>
+      </c>
+      <c r="AN41" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35">
+        <v>1600</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="U42" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB42" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC42" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD42" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE42" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK42" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL42" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM42" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN42" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="U43" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="V43" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC43" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD43" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE43" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL43" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM43" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN43" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="32">
+        <v>9404</v>
+      </c>
+      <c r="L44" s="32">
+        <v>0</v>
+      </c>
+      <c r="M44" s="33">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S44" s="31">
+        <v>0</v>
+      </c>
+      <c r="T44" s="32">
+        <v>9404</v>
+      </c>
+      <c r="U44" s="32">
+        <v>0</v>
+      </c>
+      <c r="V44" s="33">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB44" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AD44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK44" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AM44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>0</v>
+      </c>
+      <c r="B45" s="32">
+        <v>9404</v>
+      </c>
+      <c r="C45" s="32">
+        <v>0</v>
+      </c>
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" s="31">
+        <v>1353</v>
+      </c>
+      <c r="K45" s="32">
+        <v>9404</v>
+      </c>
+      <c r="L45" s="32">
+        <v>6956</v>
+      </c>
+      <c r="M45" s="33">
+        <v>37200</v>
+      </c>
+      <c r="O45" s="52">
+        <v>-2.0275162925416312E-2</v>
+      </c>
+      <c r="P45" s="2">
+        <v>-28</v>
+      </c>
+      <c r="S45" s="31">
+        <v>1395</v>
+      </c>
+      <c r="T45" s="32">
+        <v>9404</v>
+      </c>
+      <c r="U45" s="32">
+        <v>7059</v>
+      </c>
+      <c r="V45" s="33">
+        <v>37200</v>
+      </c>
+      <c r="X45" s="52">
+        <v>1.0137581462708267E-2</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB45" s="31">
+        <v>1427</v>
+      </c>
+      <c r="AC45" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AD45" s="32">
+        <v>7099</v>
+      </c>
+      <c r="AE45" s="33">
+        <v>37200</v>
+      </c>
+      <c r="AG45" s="52">
+        <v>3.3309196234612592E-2</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" s="31">
+        <v>1366</v>
+      </c>
+      <c r="AL45" s="32">
+        <v>9404</v>
+      </c>
+      <c r="AM45" s="32">
+        <v>7059</v>
+      </c>
+      <c r="AN45" s="33">
+        <v>37200</v>
+      </c>
+      <c r="AP45" s="52">
+        <v>-1.0861694424330159E-2</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>1381</v>
+      </c>
+      <c r="B46" s="32">
+        <v>9404</v>
+      </c>
+      <c r="C46" s="32">
+        <v>7059</v>
+      </c>
+      <c r="D46" s="33">
+        <v>37200</v>
+      </c>
+      <c r="F46" s="52">
+        <f>A46/A27-1</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f>A46-A27</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="31">
+        <v>2039</v>
+      </c>
+      <c r="K46" s="32">
+        <v>6932</v>
+      </c>
+      <c r="L46" s="32">
+        <v>9428</v>
+      </c>
+      <c r="M46" s="33">
+        <v>37200</v>
+      </c>
+      <c r="O46" s="52">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="31">
+        <v>2059</v>
+      </c>
+      <c r="T46" s="32">
+        <v>7035</v>
+      </c>
+      <c r="U46" s="32">
+        <v>9428</v>
+      </c>
+      <c r="V46" s="33">
+        <v>37200</v>
+      </c>
+      <c r="X46" s="52">
+        <v>9.8087297694948727E-3</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="31">
+        <v>2090</v>
+      </c>
+      <c r="AC46" s="32">
+        <v>7075</v>
+      </c>
+      <c r="AD46" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AE46" s="33">
+        <v>37200</v>
+      </c>
+      <c r="AG46" s="52">
+        <v>2.501226091221187E-2</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>51</v>
+      </c>
+      <c r="AK46" s="31">
+        <v>2018</v>
+      </c>
+      <c r="AL46" s="32">
+        <v>7035</v>
+      </c>
+      <c r="AM46" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AN46" s="33">
+        <v>37200</v>
+      </c>
+      <c r="AP46" s="52">
+        <v>-1.0299166257969561E-2</v>
+      </c>
+      <c r="AQ46" s="2">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
+        <v>2039</v>
+      </c>
+      <c r="B47" s="32">
+        <v>7035</v>
+      </c>
+      <c r="C47" s="32">
+        <v>9428</v>
+      </c>
+      <c r="D47" s="33">
+        <v>37200</v>
+      </c>
+      <c r="F47" s="52">
+        <f t="shared" ref="F47:F48" si="2">A47/A28-1</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" ref="G47:G48" si="3">A47-A28</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="31">
+        <v>2357</v>
+      </c>
+      <c r="K47" s="32">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <v>9428</v>
+      </c>
+      <c r="M47" s="33">
+        <v>30268</v>
+      </c>
+      <c r="O47" s="52">
+        <v>-2.1168501270110163E-3</v>
+      </c>
+      <c r="P47" s="2">
+        <v>-5</v>
+      </c>
+      <c r="S47" s="31">
+        <v>2379</v>
+      </c>
+      <c r="T47" s="32">
+        <v>0</v>
+      </c>
+      <c r="U47" s="32">
+        <v>9428</v>
+      </c>
+      <c r="V47" s="33">
+        <v>30165</v>
+      </c>
+      <c r="X47" s="52">
+        <v>7.1972904318373665E-3</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB47" s="31">
+        <v>2424</v>
+      </c>
+      <c r="AC47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AE47" s="33">
+        <v>30125</v>
+      </c>
+      <c r="AG47" s="52">
+        <v>2.6248941574936513E-2</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" s="31">
+        <v>2344</v>
+      </c>
+      <c r="AL47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="32">
+        <v>9428</v>
+      </c>
+      <c r="AN47" s="33">
+        <v>30165</v>
+      </c>
+      <c r="AP47" s="52">
+        <v>-7.6206604572396364E-3</v>
+      </c>
+      <c r="AQ47" s="2">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
+        <v>2362</v>
+      </c>
+      <c r="B48" s="32">
+        <v>0</v>
+      </c>
+      <c r="C48" s="32">
+        <v>9428</v>
+      </c>
+      <c r="D48" s="33">
+        <v>30165</v>
+      </c>
+      <c r="F48" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="33"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="33"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="33"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="33"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="36"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="36"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="36"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="36"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="J50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O51" s="52">
+        <v>9.7014925373133387E-3</v>
+      </c>
+      <c r="P51" s="2">
+        <v>13</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="X51" s="52">
+        <v>4.1044776119403048E-2</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>55</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG51" s="52">
+        <v>6.4925373134328446E-2</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP51" s="52">
+        <v>1.9402985074626899E-2</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" s="52">
+        <f>A46/A12-1</f>
+        <v>3.0597014925373145E-2</v>
+      </c>
+      <c r="G52" s="2">
+        <f>A46-A12</f>
+        <v>41</v>
+      </c>
+      <c r="O52" s="52">
+        <v>9.4059405940594143E-3</v>
+      </c>
+      <c r="P52" s="2">
+        <v>19</v>
+      </c>
+      <c r="X52" s="52">
+        <v>1.9306930693069324E-2</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG52" s="52">
+        <v>3.4653465346534684E-2</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>70</v>
+      </c>
+      <c r="AP52" s="52">
+        <v>-9.9009900990099098E-4</v>
+      </c>
+      <c r="AQ52" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F53" s="52">
+        <f t="shared" ref="F53:F54" si="4">A47/A13-1</f>
+        <v>9.4059405940594143E-3</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" ref="G53:G54" si="5">A47-A13</f>
+        <v>19</v>
+      </c>
+      <c r="O53" s="52">
+        <v>1.5948275862069039E-2</v>
+      </c>
+      <c r="P53" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" s="52">
+        <v>2.543103448275863E-2</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG53" s="52">
+        <v>4.482758620689653E-2</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>104</v>
+      </c>
+      <c r="AP53" s="52">
+        <v>1.0344827586206806E-2</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F54" s="52">
+        <f t="shared" si="4"/>
+        <v>1.8103448275861966E-2</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AM35:AN35"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10935,6 +12360,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.98</v>
+      </c>
+      <c r="E7">
+        <f>21/23</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1.65</v>
+      </c>
+      <c r="G9">
+        <f>0.702/0.68</f>
+        <v>1.0323529411764705</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>PRODUCT(B3:B9)</f>
+        <v>21.023288054999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR61"/>
   <sheetViews>
@@ -16141,11 +17630,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -16895,7 +18384,7 @@
         <v>0.99</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K30" s="32">
         <f>B15*C15/K29</f>
